--- a/00_SQ31T-7.1/03_SQ31T_版本发布记录.xlsx
+++ b/00_SQ31T-7.1/03_SQ31T_版本发布记录.xlsx
@@ -10,7 +10,7 @@
     <sheet name="XX（国内）" sheetId="1" r:id="rId1"/>
     <sheet name="XX_EN（海外）" sheetId="3" r:id="rId2"/>
     <sheet name="WPH" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="UTE" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1 (3)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>通用签名版本</t>
   </si>
@@ -55,15 +55,21 @@
   <si>
     <t xml:space="preserve"> SQ31T_UTE_180711_01_N_P1__U__EN_AB</t>
   </si>
+  <si>
+    <t xml:space="preserve"> SQ31T_UTE_180714_01_N_P1__U__EN_AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SQ31T_UTE_180724_01_N_P1__U__EN_AB （巫金全）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -97,7 +103,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,42 +146,81 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,59 +231,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -259,19 +265,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,139 +373,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,80 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,155 +458,229 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -682,9 +688,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="19" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="44" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="12" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1058,163 +1061,163 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>180625</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1314,7 +1317,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>180703</v>
       </c>
       <c r="B4" t="s">
@@ -1340,7 +1343,7 @@
   <dimension ref="A2:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1376,11 +1379,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>180714</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>180725</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5"/>
